--- a/console/Networking/agExcel/components/autoScaling/components/stopAS.xlsx
+++ b/console/Networking/agExcel/components/autoScaling/components/stopAS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/agExcel/components/autoScaling/components/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67F5392-BB60-E64D-AC06-2A199CFE46FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -88,21 +94,23 @@
     </r>
   </si>
   <si>
-    <t>Once the auto scaling is disabled, all scaling policies will be automatically disabled and the Availability Group cannot automatically adjust the instance number of Availability Group according to the scaling policy</t>
-  </si>
-  <si>
-    <t>Availability Groups?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirm to disable auto scaling of </t>
+    <t xml:space="preserve">Confirm to disable the auto scaling of </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the Availability Group?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Once the auto scaling is disabled, all scaling policies will be automatically disabled and the Availability Group cannot automatically adjust the instance number  according to the scaling policy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -491,22 +499,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="84.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="84.1640625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="57">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,10 +522,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="34">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -525,10 +533,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="34">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
